--- a/Optimization/Results_Hyperparameter_Optimization.xlsx
+++ b/Optimization/Results_Hyperparameter_Optimization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li\Desktop\训练结果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\DeepTM\Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F960D1-80FB-4719-BD81-5DD25C5711D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE2CA60-ECCD-4A55-A933-E59DB703294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="735" windowWidth="13935" windowHeight="12270" xr2:uid="{7894D57B-C17E-4A9E-800D-28774B2A4A64}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7894D57B-C17E-4A9E-800D-28774B2A4A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4400AFC0-B94C-423F-B800-F8745FB5495B}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,28 +460,28 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D2">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>32</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>0.56792324199999999</v>
+        <v>0.79342989200000003</v>
       </c>
       <c r="I2">
-        <v>40.200000000000003</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -489,39 +489,39 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D3">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E3">
         <v>64</v>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>0.57259433999999998</v>
+        <v>0.79277429700000002</v>
       </c>
       <c r="I3">
-        <v>44.2</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D4">
         <v>512</v>
@@ -533,13 +533,13 @@
         <v>16</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>0.57336915499999996</v>
+        <v>0.79220898900000003</v>
       </c>
       <c r="I4">
-        <v>73.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -549,72 +549,72 @@
       <c r="B5">
         <v>1E-3</v>
       </c>
-      <c r="C5">
-        <v>0.01</v>
+      <c r="C5" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D5">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>0.58019958299999996</v>
+        <v>0.79212366999999995</v>
       </c>
       <c r="I5">
-        <v>28.2</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
+      <c r="B6">
+        <v>1E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D6">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E6">
         <v>32</v>
       </c>
       <c r="F6">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0.64699887700000003</v>
+        <v>0.79191767300000004</v>
       </c>
       <c r="I6">
-        <v>49.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>0.01</v>
-      </c>
-      <c r="C7">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D7">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E7">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F7">
         <v>32</v>
@@ -623,24 +623,24 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>0.697864975</v>
+        <v>0.79106333600000001</v>
       </c>
       <c r="I7">
-        <v>81.400000000000006</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>100</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="D8">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E8">
         <v>128</v>
@@ -649,42 +649,42 @@
         <v>16</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0.72396885700000002</v>
+        <v>0.79075714699999999</v>
       </c>
       <c r="I8">
-        <v>68.2</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="C9">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D9">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>32</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>0.73940059899999999</v>
+        <v>0.79073635799999997</v>
       </c>
       <c r="I9">
-        <v>53.6</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -692,115 +692,115 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="C10">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D10">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E10">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>0.74305858300000005</v>
+        <v>0.79054000300000005</v>
       </c>
       <c r="I10">
-        <v>21</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50</v>
       </c>
-      <c r="B11" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B11">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C11">
         <v>1E-4</v>
       </c>
       <c r="D11">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E11">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>16</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>0.75752425400000001</v>
+        <v>0.78931626799999999</v>
       </c>
       <c r="I11">
-        <v>49.8</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>1E-3</v>
       </c>
       <c r="C12" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D12">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E12">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
       <c r="H12">
-        <v>0.75831885499999996</v>
+        <v>0.78906653400000004</v>
       </c>
       <c r="I12">
-        <v>49.8</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1E-3</v>
       </c>
-      <c r="C13">
-        <v>1E-3</v>
+      <c r="C13" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D13">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E13">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F13">
         <v>16</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0.75909487399999998</v>
+        <v>0.78891745700000004</v>
       </c>
       <c r="I13">
-        <v>74.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -808,42 +808,42 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C14">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D14">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E14">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F14">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G14">
         <v>8</v>
       </c>
       <c r="H14">
-        <v>0.76432170099999996</v>
+        <v>0.78841678000000004</v>
       </c>
       <c r="I14">
-        <v>43.4</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50</v>
       </c>
-      <c r="B15" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B15">
+        <v>1E-3</v>
       </c>
       <c r="C15">
         <v>1E-4</v>
       </c>
       <c r="D15">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E15">
         <v>64</v>
@@ -852,13 +852,13 @@
         <v>16</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>0.76609843499999997</v>
+        <v>0.78834140600000002</v>
       </c>
       <c r="I15">
-        <v>49.4</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -868,130 +868,130 @@
       <c r="B16">
         <v>1E-3</v>
       </c>
-      <c r="C16">
-        <v>1E-3</v>
+      <c r="C16" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D16">
         <v>128</v>
       </c>
       <c r="E16">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F16">
         <v>16</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>0.77034060900000001</v>
+        <v>0.78824175900000004</v>
       </c>
       <c r="I16">
-        <v>37.6</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>1E-3</v>
       </c>
-      <c r="C17">
-        <v>1E-3</v>
+      <c r="C17" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D17">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E17">
         <v>32</v>
       </c>
       <c r="F17">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.77347359900000001</v>
+        <v>0.78817262300000002</v>
       </c>
       <c r="I17">
-        <v>58.8</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>100</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>1E-4</v>
       </c>
       <c r="C18" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D18">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E18">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F18">
         <v>32</v>
       </c>
       <c r="G18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>0.77619745799999995</v>
+        <v>0.787867396</v>
       </c>
       <c r="I18">
-        <v>91.6</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>100</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C19">
+        <v>1E-4</v>
       </c>
       <c r="D19">
         <v>512</v>
       </c>
       <c r="E19">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>0.77761205099999997</v>
+        <v>0.78775728199999995</v>
       </c>
       <c r="I19">
-        <v>77.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>100</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>1E-3</v>
+      </c>
+      <c r="C20">
+        <v>1E-4</v>
       </c>
       <c r="D20">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E20">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F20">
         <v>32</v>
@@ -1000,39 +1000,39 @@
         <v>8</v>
       </c>
       <c r="H20">
-        <v>0.77849739900000003</v>
+        <v>0.78752570399999999</v>
       </c>
       <c r="I20">
-        <v>78.8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <v>1E-4</v>
-      </c>
-      <c r="C21">
-        <v>1E-4</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D21">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E21">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F21">
         <v>32</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>0.77871583300000002</v>
+        <v>0.78734189200000004</v>
       </c>
       <c r="I21">
-        <v>15.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1040,28 +1040,28 @@
         <v>50</v>
       </c>
       <c r="B22">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C22">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D22">
         <v>128</v>
       </c>
       <c r="E22">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0.78011608700000001</v>
+        <v>0.78696436800000003</v>
       </c>
       <c r="I22">
-        <v>39.799999999999997</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D23">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E23">
         <v>32</v>
@@ -1084,18 +1084,18 @@
         <v>16</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <v>0.78060813200000001</v>
+        <v>0.78656126900000001</v>
       </c>
       <c r="I23">
-        <v>28.2</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B24">
         <v>1E-4</v>
@@ -1104,7 +1104,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D24">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E24">
         <v>64</v>
@@ -1113,13 +1113,13 @@
         <v>32</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H24">
-        <v>0.78154101499999995</v>
+        <v>0.78589878800000001</v>
       </c>
       <c r="I24">
-        <v>20</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1127,57 +1127,57 @@
         <v>50</v>
       </c>
       <c r="B25">
-        <v>1E-4</v>
-      </c>
-      <c r="C25">
-        <v>1E-3</v>
+        <v>0.01</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D25">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E25">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>0.781926173</v>
+        <v>0.78589039800000005</v>
       </c>
       <c r="I25">
-        <v>40.4</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B26">
-        <v>1E-4</v>
-      </c>
-      <c r="C26">
-        <v>1E-3</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D26">
         <v>256</v>
       </c>
       <c r="E26">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F26">
         <v>32</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>0.78465119500000002</v>
+        <v>0.78559688400000005</v>
       </c>
       <c r="I26">
-        <v>34</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>50</v>
       </c>
       <c r="B27">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="C27" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1200,13 +1200,13 @@
         <v>32</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>0.78589039800000005</v>
+        <v>0.78515626699999996</v>
       </c>
       <c r="I27">
-        <v>37.4</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1214,74 +1214,74 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C28">
         <v>1E-4</v>
       </c>
       <c r="D28">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E28">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F28">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G28">
         <v>8</v>
       </c>
       <c r="H28">
-        <v>0.78752570399999999</v>
+        <v>0.78492836700000002</v>
       </c>
       <c r="I28">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B29">
-        <v>1E-3</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
+      </c>
+      <c r="C29">
+        <v>1E-3</v>
       </c>
       <c r="D29">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E29">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F29">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0.78824175900000004</v>
+        <v>0.78465119500000002</v>
       </c>
       <c r="I29">
-        <v>16.600000000000001</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B30">
-        <v>1E-3</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
+      </c>
+      <c r="C30">
+        <v>1E-4</v>
       </c>
       <c r="D30">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F30">
         <v>16</v>
@@ -1290,24 +1290,24 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <v>0.78906653400000004</v>
+        <v>0.78415629600000003</v>
       </c>
       <c r="I30">
-        <v>14.2</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B31">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C31" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D31">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E31">
         <v>64</v>
@@ -1319,27 +1319,27 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <v>0.79342989200000003</v>
+        <v>0.78409450599999997</v>
       </c>
       <c r="I31">
-        <v>15.8</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>100</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C32">
-        <v>0.01</v>
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>1E-4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D32">
         <v>512</v>
       </c>
       <c r="E32">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F32">
         <v>32</v>
@@ -1348,27 +1348,27 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <v>0.70691778000000005</v>
+        <v>0.78401243700000001</v>
       </c>
       <c r="I32">
-        <v>60.6</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>50</v>
       </c>
-      <c r="B33" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B33">
+        <v>1E-4</v>
       </c>
       <c r="C33">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D33">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E33">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1377,21 +1377,21 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.75413750599999996</v>
+        <v>0.78331703900000005</v>
       </c>
       <c r="I33">
-        <v>50</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>50</v>
       </c>
-      <c r="B34" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C34">
-        <v>1E-4</v>
+      <c r="B34">
+        <v>1E-4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D34">
         <v>512</v>
@@ -1406,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0.77065921299999995</v>
+        <v>0.78327848200000005</v>
       </c>
       <c r="I34">
-        <v>49.4</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1423,22 +1423,22 @@
         <v>1E-3</v>
       </c>
       <c r="D35">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E35">
         <v>128</v>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>0.77243108100000002</v>
+        <v>0.781926173</v>
       </c>
       <c r="I35">
-        <v>34</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1446,13 +1446,13 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C36">
         <v>1E-4</v>
       </c>
       <c r="D36">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E36">
         <v>32</v>
@@ -1461,53 +1461,53 @@
         <v>32</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0.79054000300000005</v>
+        <v>0.78154765100000001</v>
       </c>
       <c r="I36">
-        <v>30.4</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B37">
-        <v>1E-3</v>
-      </c>
-      <c r="C37">
-        <v>0.01</v>
+        <v>1E-4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D37">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E37">
         <v>64</v>
       </c>
       <c r="F37">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>0.60982492899999996</v>
+        <v>0.78154101499999995</v>
       </c>
       <c r="I37">
-        <v>31.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>100</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C38">
-        <v>0.01</v>
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>1E-4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D38">
         <v>256</v>
@@ -1522,10 +1522,10 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>0.68814183799999995</v>
+        <v>0.78064704900000004</v>
       </c>
       <c r="I38">
-        <v>70.599999999999994</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1533,13 +1533,13 @@
         <v>50</v>
       </c>
       <c r="B39">
-        <v>0.01</v>
-      </c>
-      <c r="C39">
-        <v>1E-3</v>
+        <v>1E-4</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D39">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E39">
         <v>32</v>
@@ -1548,42 +1548,42 @@
         <v>16</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>0.69415973799999997</v>
+        <v>0.78060813200000001</v>
       </c>
       <c r="I39">
-        <v>35.4</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>100</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C40" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D40">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E40">
         <v>128</v>
       </c>
       <c r="F40">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0.77771109999999999</v>
+        <v>0.78042883900000004</v>
       </c>
       <c r="I40">
-        <v>93.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1593,14 +1593,14 @@
       <c r="B41">
         <v>1E-4</v>
       </c>
-      <c r="C41" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="C41">
+        <v>1E-3</v>
       </c>
       <c r="D41">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E41">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F41">
         <v>32</v>
@@ -1609,10 +1609,10 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>0.78401243700000001</v>
+        <v>0.78011608700000001</v>
       </c>
       <c r="I41">
-        <v>18.2</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1626,30 +1626,30 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D42">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E42">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F42">
         <v>32</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>0.78589878800000001</v>
+        <v>0.77963496300000001</v>
       </c>
       <c r="I42">
-        <v>15.2</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>50</v>
-      </c>
-      <c r="B43">
-        <v>1E-3</v>
+        <v>150</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C43" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1658,7 +1658,7 @@
         <v>512</v>
       </c>
       <c r="E43">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F43">
         <v>32</v>
@@ -1667,10 +1667,10 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <v>0.78734189200000004</v>
+        <v>0.77949005400000004</v>
       </c>
       <c r="I43">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1678,42 +1678,42 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C44" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D44">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E44">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F44">
         <v>16</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0.79220898900000003</v>
+        <v>0.77925012500000002</v>
       </c>
       <c r="I44">
-        <v>14</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B45">
-        <v>1E-3</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
+      </c>
+      <c r="C45">
+        <v>1E-4</v>
       </c>
       <c r="D45">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E45">
         <v>64</v>
@@ -1722,10 +1722,10 @@
         <v>32</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>0.79277429700000002</v>
+        <v>0.77871583300000002</v>
       </c>
       <c r="I45">
         <v>15.2</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1745,27 +1745,27 @@
         <v>512</v>
       </c>
       <c r="E46">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F46">
         <v>32</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H46">
-        <v>0.77949005400000004</v>
+        <v>0.77849739900000003</v>
       </c>
       <c r="I46">
-        <v>82</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>50</v>
-      </c>
-      <c r="B47">
-        <v>1E-4</v>
+        <v>100</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C47" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1774,7 +1774,7 @@
         <v>256</v>
       </c>
       <c r="E47">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F47">
         <v>32</v>
@@ -1783,114 +1783,114 @@
         <v>4</v>
       </c>
       <c r="H47">
-        <v>0.78409450599999997</v>
+        <v>0.77771109999999999</v>
       </c>
       <c r="I47">
-        <v>18.600000000000001</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>50</v>
-      </c>
-      <c r="B48">
-        <v>1E-3</v>
+        <v>100</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C48" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D48">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E48">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F48">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>0.78559688400000005</v>
+        <v>0.77761205099999997</v>
       </c>
       <c r="I48">
-        <v>21.2</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>50</v>
-      </c>
-      <c r="B49">
-        <v>1E-4</v>
+        <v>100</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C49" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D49">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E49">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F49">
         <v>32</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H49">
-        <v>0.787867396</v>
+        <v>0.77619745799999995</v>
       </c>
       <c r="I49">
-        <v>21.4</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50">
-        <v>1E-3</v>
+      <c r="B50" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C50">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D50">
         <v>512</v>
       </c>
       <c r="E50">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F50">
         <v>32</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>0.73833511699999999</v>
+        <v>0.77615225399999999</v>
       </c>
       <c r="I50">
-        <v>42.6</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C51" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>100</v>
+      </c>
+      <c r="B51">
+        <v>1E-3</v>
+      </c>
+      <c r="C51">
+        <v>1E-3</v>
       </c>
       <c r="D51">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E51">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F51">
         <v>32</v>
@@ -1899,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>0.76207212599999996</v>
+        <v>0.77347359900000001</v>
       </c>
       <c r="I51">
-        <v>49.75</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C52">
         <v>1E-3</v>
@@ -1919,19 +1919,19 @@
         <v>256</v>
       </c>
       <c r="E52">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F52">
         <v>32</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H52">
-        <v>0.76233334500000005</v>
+        <v>0.77243108100000002</v>
       </c>
       <c r="I52">
-        <v>36.6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -1941,43 +1941,43 @@
       <c r="B53" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C53">
-        <v>1E-3</v>
+      <c r="C53" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D53">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E53">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F53">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>0.76469288599999996</v>
+        <v>0.77081986899999999</v>
       </c>
       <c r="I53">
-        <v>48.8</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
-      <c r="B54" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B54">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C54">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D54">
         <v>512</v>
       </c>
       <c r="E54">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F54">
         <v>32</v>
@@ -1986,24 +1986,24 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <v>0.77615225399999999</v>
+        <v>0.77080206900000003</v>
       </c>
       <c r="I54">
-        <v>49.6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50</v>
       </c>
-      <c r="B55">
-        <v>5.0000000000000001E-4</v>
+      <c r="B55" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C55">
         <v>1E-4</v>
       </c>
       <c r="D55">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E55">
         <v>32</v>
@@ -2015,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>0.78696436800000003</v>
+        <v>0.77065921299999995</v>
       </c>
       <c r="I55">
-        <v>20.8</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2029,25 +2029,25 @@
         <v>1E-3</v>
       </c>
       <c r="C56">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D56">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E56">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F56">
         <v>32</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>0.79073635799999997</v>
+        <v>0.77058483600000005</v>
       </c>
       <c r="I56">
-        <v>26.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2055,57 +2055,57 @@
         <v>50</v>
       </c>
       <c r="B57">
-        <v>1E-3</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C57">
+        <v>1E-3</v>
       </c>
       <c r="D57">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E57">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F57">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>0.79191767300000004</v>
+        <v>0.77042131400000002</v>
       </c>
       <c r="I57">
-        <v>11.6</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>50</v>
       </c>
-      <c r="B58" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B58">
+        <v>1E-3</v>
       </c>
       <c r="C58">
         <v>1E-3</v>
       </c>
       <c r="D58">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E58">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F58">
         <v>16</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>0.73716017300000003</v>
+        <v>0.77034060900000001</v>
       </c>
       <c r="I58">
-        <v>49.8</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2128,13 +2128,13 @@
         <v>16</v>
       </c>
       <c r="G59">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>0.74157399599999996</v>
+        <v>0.76916775299999995</v>
       </c>
       <c r="I59">
-        <v>32.799999999999997</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2145,54 +2145,54 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C60">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D60">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E60">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F60">
         <v>16</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H60">
-        <v>0.756783015</v>
+        <v>0.76609843499999997</v>
       </c>
       <c r="I60">
-        <v>49</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>50</v>
       </c>
-      <c r="B61">
-        <v>1E-3</v>
-      </c>
-      <c r="C61">
-        <v>1E-3</v>
+      <c r="B61" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D61">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E61">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F61">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>0.76213649800000005</v>
+        <v>0.76473837300000003</v>
       </c>
       <c r="I61">
-        <v>41.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2202,14 +2202,14 @@
       <c r="B62" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C62" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="C62">
+        <v>1E-3</v>
       </c>
       <c r="D62">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E62">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F62">
         <v>16</v>
@@ -2218,10 +2218,10 @@
         <v>2</v>
       </c>
       <c r="H62">
-        <v>0.76473837300000003</v>
+        <v>0.76469288599999996</v>
       </c>
       <c r="I62">
-        <v>50</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2229,7 +2229,7 @@
         <v>50</v>
       </c>
       <c r="B63">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="C63">
         <v>1E-3</v>
@@ -2241,16 +2241,16 @@
         <v>32</v>
       </c>
       <c r="F63">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H63">
-        <v>0.76916775299999995</v>
+        <v>0.76432170099999996</v>
       </c>
       <c r="I63">
-        <v>35.4</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,13 +2258,13 @@
         <v>50</v>
       </c>
       <c r="B64">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C64">
         <v>1E-3</v>
       </c>
       <c r="D64">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E64">
         <v>64</v>
@@ -2276,10 +2276,10 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <v>0.77042131400000002</v>
+        <v>0.76233334500000005</v>
       </c>
       <c r="I64">
-        <v>43.2</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2293,88 +2293,88 @@
         <v>1E-3</v>
       </c>
       <c r="D65">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E65">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F65">
         <v>32</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H65">
-        <v>0.77058483600000005</v>
+        <v>0.76213649800000005</v>
       </c>
       <c r="I65">
-        <v>31.8</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>50</v>
       </c>
-      <c r="B66">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C66">
-        <v>1E-3</v>
+      <c r="B66" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D66">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E66">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F66">
         <v>32</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>0.77080206900000003</v>
+        <v>0.76207212599999996</v>
       </c>
       <c r="I66">
-        <v>34</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>50</v>
-      </c>
-      <c r="B67" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C67" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>100</v>
+      </c>
+      <c r="B67">
+        <v>1E-3</v>
+      </c>
+      <c r="C67">
+        <v>1E-3</v>
       </c>
       <c r="D67">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E67">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F67">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H67">
-        <v>0.77081986899999999</v>
+        <v>0.75909487399999998</v>
       </c>
       <c r="I67">
-        <v>49.6</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>50</v>
       </c>
-      <c r="B68">
-        <v>1E-4</v>
+      <c r="B68" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C68" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2383,62 +2383,62 @@
         <v>128</v>
       </c>
       <c r="E68">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F68">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H68">
-        <v>0.77925012500000002</v>
+        <v>0.75831885499999996</v>
       </c>
       <c r="I68">
-        <v>22.4</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>50</v>
       </c>
-      <c r="B69">
-        <v>1E-4</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B69" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C69">
+        <v>1E-4</v>
       </c>
       <c r="D69">
         <v>128</v>
       </c>
       <c r="E69">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F69">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>0.77963496300000001</v>
+        <v>0.75752425400000001</v>
       </c>
       <c r="I69">
-        <v>21.2</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>50</v>
       </c>
-      <c r="B70">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B70" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C70">
+        <v>1E-3</v>
       </c>
       <c r="D70">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E70">
         <v>128</v>
@@ -2450,39 +2450,39 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>0.78042883900000004</v>
+        <v>0.756783015</v>
       </c>
       <c r="I70">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>50</v>
       </c>
-      <c r="B71">
-        <v>1E-4</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B71" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C71">
+        <v>1E-4</v>
       </c>
       <c r="D71">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E71">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F71">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>0.78064704900000004</v>
+        <v>0.75413750599999996</v>
       </c>
       <c r="I71">
-        <v>20.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2490,28 +2490,28 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="C72">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D72">
         <v>256</v>
       </c>
       <c r="E72">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F72">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>0.78154765100000001</v>
+        <v>0.74305858300000005</v>
       </c>
       <c r="I72">
-        <v>20.2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2519,13 +2519,13 @@
         <v>50</v>
       </c>
       <c r="B73">
-        <v>1E-4</v>
-      </c>
-      <c r="C73" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C73">
+        <v>1E-3</v>
       </c>
       <c r="D73">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E73">
         <v>32</v>
@@ -2534,42 +2534,42 @@
         <v>16</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H73">
-        <v>0.78327848200000005</v>
+        <v>0.74157399599999996</v>
       </c>
       <c r="I73">
-        <v>19.8</v>
+        <v>32.799999999999997</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B74">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="C74">
         <v>1E-3</v>
       </c>
       <c r="D74">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E74">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F74">
         <v>32</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H74">
-        <v>0.78331703900000005</v>
+        <v>0.73940059899999999</v>
       </c>
       <c r="I74">
-        <v>34.6</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -2577,144 +2577,144 @@
         <v>50</v>
       </c>
       <c r="B75">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C75">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D75">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E75">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F75">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>8</v>
       </c>
       <c r="H75">
-        <v>0.78415629600000003</v>
+        <v>0.73833511699999999</v>
       </c>
       <c r="I75">
-        <v>30.8</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>50</v>
       </c>
-      <c r="B76">
-        <v>1E-4</v>
+      <c r="B76" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C76">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D76">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E76">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F76">
         <v>16</v>
       </c>
       <c r="G76">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H76">
-        <v>0.78492836700000002</v>
+        <v>0.73716017300000003</v>
       </c>
       <c r="I76">
-        <v>25</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>50</v>
-      </c>
-      <c r="B77">
-        <v>1E-3</v>
-      </c>
-      <c r="C77" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>100</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C77">
+        <v>0.01</v>
       </c>
       <c r="D77">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E77">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F77">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G77">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>0.78515626699999996</v>
+        <v>0.72396885700000002</v>
       </c>
       <c r="I77">
-        <v>10.6</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>50</v>
-      </c>
-      <c r="B78">
-        <v>1E-4</v>
-      </c>
-      <c r="C78" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>100</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C78">
+        <v>0.01</v>
       </c>
       <c r="D78">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E78">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F78">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G78">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H78">
-        <v>0.78656126900000001</v>
+        <v>0.70691778000000005</v>
       </c>
       <c r="I78">
-        <v>29.2</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B79">
-        <v>5.0000000000000001E-4</v>
+        <v>0.01</v>
       </c>
       <c r="C79">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D79">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E79">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F79">
         <v>32</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H79">
-        <v>0.78775728199999995</v>
+        <v>0.697864975</v>
       </c>
       <c r="I79">
-        <v>22</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -2722,10 +2722,10 @@
         <v>50</v>
       </c>
       <c r="B80">
-        <v>1E-3</v>
-      </c>
-      <c r="C80" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
+      </c>
+      <c r="C80">
+        <v>1E-3</v>
       </c>
       <c r="D80">
         <v>512</v>
@@ -2737,27 +2737,27 @@
         <v>16</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H80">
-        <v>0.78817262300000002</v>
+        <v>0.69415973799999997</v>
       </c>
       <c r="I80">
-        <v>13.2</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>50</v>
-      </c>
-      <c r="B81">
-        <v>1E-3</v>
+        <v>100</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C81">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D81">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E81">
         <v>64</v>
@@ -2766,42 +2766,42 @@
         <v>16</v>
       </c>
       <c r="G81">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H81">
-        <v>0.78834140600000002</v>
+        <v>0.68814183799999995</v>
       </c>
       <c r="I81">
-        <v>26.6</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>50</v>
       </c>
-      <c r="B82">
-        <v>1E-3</v>
+      <c r="B82" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C82">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D82">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E82">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F82">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>8</v>
       </c>
       <c r="H82">
-        <v>0.78841678000000004</v>
+        <v>0.64699887700000003</v>
       </c>
       <c r="I82">
-        <v>23.6</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -2811,26 +2811,26 @@
       <c r="B83">
         <v>1E-3</v>
       </c>
-      <c r="C83" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="C83">
+        <v>0.01</v>
       </c>
       <c r="D83">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E83">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F83">
         <v>16</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H83">
-        <v>0.78891745700000004</v>
+        <v>0.60982492899999996</v>
       </c>
       <c r="I83">
-        <v>12</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -2838,57 +2838,57 @@
         <v>50</v>
       </c>
       <c r="B84">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C84">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D84">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E84">
         <v>32</v>
       </c>
       <c r="F84">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G84">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>0.78931626799999999</v>
+        <v>0.58019958299999996</v>
       </c>
       <c r="I84">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B85">
-        <v>5.0000000000000001E-4</v>
+        <v>0.01</v>
       </c>
       <c r="C85">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D85">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E85">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F85">
         <v>16</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H85">
-        <v>0.79075714699999999</v>
+        <v>0.57336915499999996</v>
       </c>
       <c r="I85">
-        <v>17.600000000000001</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -2896,28 +2896,28 @@
         <v>50</v>
       </c>
       <c r="B86">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
+      </c>
+      <c r="C86">
+        <v>0.01</v>
       </c>
       <c r="D86">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E86">
         <v>64</v>
       </c>
       <c r="F86">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G86">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>0.79106333600000001</v>
+        <v>0.57259433999999998</v>
       </c>
       <c r="I86">
-        <v>12.6</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -2925,32 +2925,36 @@
         <v>50</v>
       </c>
       <c r="B87">
-        <v>1E-3</v>
-      </c>
-      <c r="C87" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
+      </c>
+      <c r="C87">
+        <v>0.01</v>
       </c>
       <c r="D87">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E87">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F87">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>0.79212366999999995</v>
+        <v>0.56792324199999999</v>
       </c>
       <c r="I87">
-        <v>16.8</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I87">
+    <sortCondition descending="1" ref="H1:H87"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Optimization/Results_Hyperparameter_Optimization.xlsx
+++ b/Optimization/Results_Hyperparameter_Optimization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\python\DeepTM\Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li\Desktop\训练结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE2CA60-ECCD-4A55-A933-E59DB703294D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F960D1-80FB-4719-BD81-5DD25C5711D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7894D57B-C17E-4A9E-800D-28774B2A4A64}"/>
+    <workbookView xWindow="7440" yWindow="735" windowWidth="13935" windowHeight="12270" xr2:uid="{7894D57B-C17E-4A9E-800D-28774B2A4A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4400AFC0-B94C-423F-B800-F8745FB5495B}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -460,28 +460,28 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>1E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
       </c>
       <c r="D2">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E2">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>32</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.79342989200000003</v>
+        <v>0.56792324199999999</v>
       </c>
       <c r="I2">
-        <v>15.8</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -489,39 +489,39 @@
         <v>50</v>
       </c>
       <c r="B3">
-        <v>1E-3</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E3">
         <v>64</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0.79277429700000002</v>
+        <v>0.57259433999999998</v>
       </c>
       <c r="I3">
-        <v>15.2</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>1E-3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
       </c>
       <c r="D4">
         <v>512</v>
@@ -533,13 +533,13 @@
         <v>16</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>0.79220898900000003</v>
+        <v>0.57336915499999996</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>73.8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -549,72 +549,72 @@
       <c r="B5">
         <v>1E-3</v>
       </c>
-      <c r="C5" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="C5">
+        <v>0.01</v>
       </c>
       <c r="D5">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E5">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.79212366999999995</v>
+        <v>0.58019958299999996</v>
       </c>
       <c r="I5">
-        <v>16.8</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
-      <c r="B6">
-        <v>1E-3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B6" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
       </c>
       <c r="D6">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E6">
         <v>32</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>0.79191767300000004</v>
+        <v>0.64699887700000003</v>
       </c>
       <c r="I6">
-        <v>11.6</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B7">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <v>1E-3</v>
       </c>
       <c r="D7">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E7">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>32</v>
@@ -623,24 +623,24 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>0.79106333600000001</v>
+        <v>0.697864975</v>
       </c>
       <c r="I7">
-        <v>12.6</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>50</v>
-      </c>
-      <c r="B8">
-        <v>5.0000000000000001E-4</v>
+        <v>100</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C8">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="D8">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E8">
         <v>128</v>
@@ -649,42 +649,42 @@
         <v>16</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>0.79075714699999999</v>
+        <v>0.72396885700000002</v>
       </c>
       <c r="I8">
-        <v>17.600000000000001</v>
+        <v>68.2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B9">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C9">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D9">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E9">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>32</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>0.79073635799999997</v>
+        <v>0.73940059899999999</v>
       </c>
       <c r="I9">
-        <v>26.8</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -692,115 +692,115 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C10">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D10">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0.79054000300000005</v>
+        <v>0.74305858300000005</v>
       </c>
       <c r="I10">
-        <v>30.4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>50</v>
       </c>
-      <c r="B11">
-        <v>5.0000000000000001E-4</v>
+      <c r="B11" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C11">
         <v>1E-4</v>
       </c>
       <c r="D11">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>16</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.78931626799999999</v>
+        <v>0.75752425400000001</v>
       </c>
       <c r="I11">
-        <v>27.8</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>1E-3</v>
+        <v>50</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C12" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D12">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E12">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
       <c r="H12">
-        <v>0.78906653400000004</v>
+        <v>0.75831885499999996</v>
       </c>
       <c r="I12">
-        <v>14.2</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>1E-3</v>
       </c>
-      <c r="C13" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="C13">
+        <v>1E-3</v>
       </c>
       <c r="D13">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F13">
         <v>16</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>0.78891745700000004</v>
+        <v>0.75909487399999998</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>74.2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -808,42 +808,42 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C14">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D14">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E14">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G14">
         <v>8</v>
       </c>
       <c r="H14">
-        <v>0.78841678000000004</v>
+        <v>0.76432170099999996</v>
       </c>
       <c r="I14">
-        <v>23.6</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50</v>
       </c>
-      <c r="B15">
-        <v>1E-3</v>
+      <c r="B15" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C15">
         <v>1E-4</v>
       </c>
       <c r="D15">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E15">
         <v>64</v>
@@ -852,13 +852,13 @@
         <v>16</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>0.78834140600000002</v>
+        <v>0.76609843499999997</v>
       </c>
       <c r="I15">
-        <v>26.6</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -868,130 +868,130 @@
       <c r="B16">
         <v>1E-3</v>
       </c>
-      <c r="C16" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="C16">
+        <v>1E-3</v>
       </c>
       <c r="D16">
         <v>128</v>
       </c>
       <c r="E16">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F16">
         <v>16</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0.78824175900000004</v>
+        <v>0.77034060900000001</v>
       </c>
       <c r="I16">
-        <v>16.600000000000001</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>1E-3</v>
       </c>
-      <c r="C17" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="C17">
+        <v>1E-3</v>
       </c>
       <c r="D17">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E17">
         <v>32</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.78817262300000002</v>
+        <v>0.77347359900000001</v>
       </c>
       <c r="I17">
-        <v>13.2</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>50</v>
-      </c>
-      <c r="B18">
-        <v>1E-4</v>
+        <v>100</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C18" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D18">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E18">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F18">
         <v>32</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>0.787867396</v>
+        <v>0.77619745799999995</v>
       </c>
       <c r="I18">
-        <v>21.4</v>
+        <v>91.6</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>50</v>
-      </c>
-      <c r="B19">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C19">
-        <v>1E-4</v>
+        <v>100</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D19">
         <v>512</v>
       </c>
       <c r="E19">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.78775728199999995</v>
+        <v>0.77761205099999997</v>
       </c>
       <c r="I19">
-        <v>22</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>50</v>
-      </c>
-      <c r="B20">
-        <v>1E-3</v>
-      </c>
-      <c r="C20">
-        <v>1E-4</v>
+        <v>100</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D20">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E20">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F20">
         <v>32</v>
@@ -1000,39 +1000,39 @@
         <v>8</v>
       </c>
       <c r="H20">
-        <v>0.78752570399999999</v>
+        <v>0.77849739900000003</v>
       </c>
       <c r="I20">
-        <v>33</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B21">
-        <v>1E-3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
+      </c>
+      <c r="C21">
+        <v>1E-4</v>
       </c>
       <c r="D21">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E21">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F21">
         <v>32</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0.78734189200000004</v>
+        <v>0.77871583300000002</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1040,28 +1040,28 @@
         <v>50</v>
       </c>
       <c r="B22">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="C22">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D22">
         <v>128</v>
       </c>
       <c r="E22">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F22">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>0.78696436800000003</v>
+        <v>0.78011608700000001</v>
       </c>
       <c r="I22">
-        <v>20.8</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D23">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E23">
         <v>32</v>
@@ -1084,18 +1084,18 @@
         <v>16</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>0.78656126900000001</v>
+        <v>0.78060813200000001</v>
       </c>
       <c r="I23">
-        <v>29.2</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B24">
         <v>1E-4</v>
@@ -1104,7 +1104,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D24">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E24">
         <v>64</v>
@@ -1113,13 +1113,13 @@
         <v>32</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0.78589878800000001</v>
+        <v>0.78154101499999995</v>
       </c>
       <c r="I24">
-        <v>15.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1127,57 +1127,57 @@
         <v>50</v>
       </c>
       <c r="B25">
-        <v>0.01</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
+      </c>
+      <c r="C25">
+        <v>1E-3</v>
       </c>
       <c r="D25">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E25">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F25">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>0.78589039800000005</v>
+        <v>0.781926173</v>
       </c>
       <c r="I25">
-        <v>37.4</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B26">
-        <v>1E-3</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
+      </c>
+      <c r="C26">
+        <v>1E-3</v>
       </c>
       <c r="D26">
         <v>256</v>
       </c>
       <c r="E26">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F26">
         <v>32</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>0.78559688400000005</v>
+        <v>0.78465119500000002</v>
       </c>
       <c r="I26">
-        <v>21.2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>50</v>
       </c>
       <c r="B27">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="C27" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1200,13 +1200,13 @@
         <v>32</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>0.78515626699999996</v>
+        <v>0.78589039800000005</v>
       </c>
       <c r="I27">
-        <v>10.6</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1214,74 +1214,74 @@
         <v>50</v>
       </c>
       <c r="B28">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C28">
         <v>1E-4</v>
       </c>
       <c r="D28">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E28">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G28">
         <v>8</v>
       </c>
       <c r="H28">
-        <v>0.78492836700000002</v>
+        <v>0.78752570399999999</v>
       </c>
       <c r="I28">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B29">
-        <v>1E-4</v>
-      </c>
-      <c r="C29">
-        <v>1E-3</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D29">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E29">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F29">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H29">
-        <v>0.78465119500000002</v>
+        <v>0.78824175900000004</v>
       </c>
       <c r="I29">
-        <v>34</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B30">
-        <v>1E-4</v>
-      </c>
-      <c r="C30">
-        <v>1E-4</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D30">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E30">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F30">
         <v>16</v>
@@ -1290,24 +1290,24 @@
         <v>8</v>
       </c>
       <c r="H30">
-        <v>0.78415629600000003</v>
+        <v>0.78906653400000004</v>
       </c>
       <c r="I30">
-        <v>30.8</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="B31">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C31" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D31">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E31">
         <v>64</v>
@@ -1319,27 +1319,27 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <v>0.78409450599999997</v>
+        <v>0.79342989200000003</v>
       </c>
       <c r="I31">
-        <v>18.600000000000001</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>50</v>
-      </c>
-      <c r="B32">
-        <v>1E-4</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>100</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C32">
+        <v>0.01</v>
       </c>
       <c r="D32">
         <v>512</v>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F32">
         <v>32</v>
@@ -1348,27 +1348,27 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <v>0.78401243700000001</v>
+        <v>0.70691778000000005</v>
       </c>
       <c r="I32">
-        <v>18.2</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>50</v>
       </c>
-      <c r="B33">
-        <v>1E-4</v>
+      <c r="B33" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C33">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D33">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E33">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1377,21 +1377,21 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.78331703900000005</v>
+        <v>0.75413750599999996</v>
       </c>
       <c r="I33">
-        <v>34.6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>50</v>
       </c>
-      <c r="B34">
-        <v>1E-4</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B34" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C34">
+        <v>1E-4</v>
       </c>
       <c r="D34">
         <v>512</v>
@@ -1406,10 +1406,10 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0.78327848200000005</v>
+        <v>0.77065921299999995</v>
       </c>
       <c r="I34">
-        <v>19.8</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1423,22 +1423,22 @@
         <v>1E-3</v>
       </c>
       <c r="D35">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E35">
         <v>128</v>
       </c>
       <c r="F35">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H35">
-        <v>0.781926173</v>
+        <v>0.77243108100000002</v>
       </c>
       <c r="I35">
-        <v>40.4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1446,13 +1446,13 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C36">
         <v>1E-4</v>
       </c>
       <c r="D36">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E36">
         <v>32</v>
@@ -1461,53 +1461,53 @@
         <v>32</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>0.78154765100000001</v>
+        <v>0.79054000300000005</v>
       </c>
       <c r="I36">
-        <v>20.2</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B37">
-        <v>1E-4</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C37">
+        <v>0.01</v>
       </c>
       <c r="D37">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E37">
         <v>64</v>
       </c>
       <c r="F37">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>0.78154101499999995</v>
+        <v>0.60982492899999996</v>
       </c>
       <c r="I37">
-        <v>20</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>50</v>
-      </c>
-      <c r="B38">
-        <v>1E-4</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>100</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C38">
+        <v>0.01</v>
       </c>
       <c r="D38">
         <v>256</v>
@@ -1522,10 +1522,10 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>0.78064704900000004</v>
+        <v>0.68814183799999995</v>
       </c>
       <c r="I38">
-        <v>20.6</v>
+        <v>70.599999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -1533,13 +1533,13 @@
         <v>50</v>
       </c>
       <c r="B39">
-        <v>1E-4</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
+      </c>
+      <c r="C39">
+        <v>1E-3</v>
       </c>
       <c r="D39">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E39">
         <v>32</v>
@@ -1548,42 +1548,42 @@
         <v>16</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H39">
-        <v>0.78060813200000001</v>
+        <v>0.69415973799999997</v>
       </c>
       <c r="I39">
-        <v>28.2</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>50</v>
-      </c>
-      <c r="B40">
-        <v>5.0000000000000001E-4</v>
+        <v>100</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C40" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D40">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E40">
         <v>128</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>0.78042883900000004</v>
+        <v>0.77771109999999999</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -1593,14 +1593,14 @@
       <c r="B41">
         <v>1E-4</v>
       </c>
-      <c r="C41">
-        <v>1E-3</v>
+      <c r="C41" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D41">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E41">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F41">
         <v>32</v>
@@ -1609,10 +1609,10 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>0.78011608700000001</v>
+        <v>0.78401243700000001</v>
       </c>
       <c r="I41">
-        <v>39.799999999999997</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -1626,30 +1626,30 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D42">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E42">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F42">
         <v>32</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>0.77963496300000001</v>
+        <v>0.78589878800000001</v>
       </c>
       <c r="I42">
-        <v>21.2</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>150</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>1E-3</v>
       </c>
       <c r="C43" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1658,7 +1658,7 @@
         <v>512</v>
       </c>
       <c r="E43">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F43">
         <v>32</v>
@@ -1667,10 +1667,10 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <v>0.77949005400000004</v>
+        <v>0.78734189200000004</v>
       </c>
       <c r="I43">
-        <v>82</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -1678,42 +1678,42 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C44" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D44">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E44">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F44">
         <v>16</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H44">
-        <v>0.77925012500000002</v>
+        <v>0.79220898900000003</v>
       </c>
       <c r="I44">
-        <v>22.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>1E-4</v>
-      </c>
-      <c r="C45">
-        <v>1E-4</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D45">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E45">
         <v>64</v>
@@ -1722,10 +1722,10 @@
         <v>32</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>0.77871583300000002</v>
+        <v>0.79277429700000002</v>
       </c>
       <c r="I45">
         <v>15.2</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="B46" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1745,27 +1745,27 @@
         <v>512</v>
       </c>
       <c r="E46">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F46">
         <v>32</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>0.77849739900000003</v>
+        <v>0.77949005400000004</v>
       </c>
       <c r="I46">
-        <v>78.8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>100</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>1E-4</v>
       </c>
       <c r="C47" s="1">
         <v>1.0000000000000001E-5</v>
@@ -1774,7 +1774,7 @@
         <v>256</v>
       </c>
       <c r="E47">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F47">
         <v>32</v>
@@ -1783,114 +1783,114 @@
         <v>4</v>
       </c>
       <c r="H47">
-        <v>0.77771109999999999</v>
+        <v>0.78409450599999997</v>
       </c>
       <c r="I47">
-        <v>93.2</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>100</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B48">
+        <v>1E-3</v>
       </c>
       <c r="C48" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D48">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E48">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F48">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>0.77761205099999997</v>
+        <v>0.78559688400000005</v>
       </c>
       <c r="I48">
-        <v>77.2</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>100</v>
-      </c>
-      <c r="B49" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>1E-4</v>
       </c>
       <c r="C49" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D49">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E49">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F49">
         <v>32</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>0.77619745799999995</v>
+        <v>0.787867396</v>
       </c>
       <c r="I49">
-        <v>91.6</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B50">
+        <v>1E-3</v>
       </c>
       <c r="C50">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D50">
         <v>512</v>
       </c>
       <c r="E50">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F50">
         <v>32</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H50">
-        <v>0.77615225399999999</v>
+        <v>0.73833511699999999</v>
       </c>
       <c r="I50">
-        <v>49.6</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>100</v>
-      </c>
-      <c r="B51">
-        <v>1E-3</v>
-      </c>
-      <c r="C51">
-        <v>1E-3</v>
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D51">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E51">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F51">
         <v>32</v>
@@ -1899,10 +1899,10 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>0.77347359900000001</v>
+        <v>0.76207212599999996</v>
       </c>
       <c r="I51">
-        <v>58.8</v>
+        <v>49.75</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C52">
         <v>1E-3</v>
@@ -1919,19 +1919,19 @@
         <v>256</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F52">
         <v>32</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H52">
-        <v>0.77243108100000002</v>
+        <v>0.76233334500000005</v>
       </c>
       <c r="I52">
-        <v>34</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -1941,43 +1941,43 @@
       <c r="B53" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C53" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="C53">
+        <v>1E-3</v>
       </c>
       <c r="D53">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E53">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F53">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>0.77081986899999999</v>
+        <v>0.76469288599999996</v>
       </c>
       <c r="I53">
-        <v>49.6</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
-      <c r="B54">
-        <v>5.0000000000000001E-4</v>
+      <c r="B54" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C54">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D54">
         <v>512</v>
       </c>
       <c r="E54">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F54">
         <v>32</v>
@@ -1986,24 +1986,24 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <v>0.77080206900000003</v>
+        <v>0.77615225399999999</v>
       </c>
       <c r="I54">
-        <v>34</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50</v>
       </c>
-      <c r="B55" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B55">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C55">
         <v>1E-4</v>
       </c>
       <c r="D55">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E55">
         <v>32</v>
@@ -2015,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>0.77065921299999995</v>
+        <v>0.78696436800000003</v>
       </c>
       <c r="I55">
-        <v>49.4</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2029,25 +2029,25 @@
         <v>1E-3</v>
       </c>
       <c r="C56">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D56">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E56">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F56">
         <v>32</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H56">
-        <v>0.77058483600000005</v>
+        <v>0.79073635799999997</v>
       </c>
       <c r="I56">
-        <v>31.8</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2055,57 +2055,57 @@
         <v>50</v>
       </c>
       <c r="B57">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C57">
-        <v>1E-3</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D57">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E57">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F57">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0.77042131400000002</v>
+        <v>0.79191767300000004</v>
       </c>
       <c r="I57">
-        <v>43.2</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>50</v>
       </c>
-      <c r="B58">
-        <v>1E-3</v>
+      <c r="B58" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C58">
         <v>1E-3</v>
       </c>
       <c r="D58">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E58">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F58">
         <v>16</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H58">
-        <v>0.77034060900000001</v>
+        <v>0.73716017300000003</v>
       </c>
       <c r="I58">
-        <v>37.6</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2128,13 +2128,13 @@
         <v>16</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H59">
-        <v>0.76916775299999995</v>
+        <v>0.74157399599999996</v>
       </c>
       <c r="I59">
-        <v>35.4</v>
+        <v>32.799999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2145,54 +2145,54 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C60">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D60">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E60">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F60">
         <v>16</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>0.76609843499999997</v>
+        <v>0.756783015</v>
       </c>
       <c r="I60">
-        <v>49.4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>50</v>
       </c>
-      <c r="B61" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C61" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B61">
+        <v>1E-3</v>
+      </c>
+      <c r="C61">
+        <v>1E-3</v>
       </c>
       <c r="D61">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E61">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H61">
-        <v>0.76473837300000003</v>
+        <v>0.76213649800000005</v>
       </c>
       <c r="I61">
-        <v>50</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2202,14 +2202,14 @@
       <c r="B62" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C62">
-        <v>1E-3</v>
+      <c r="C62" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D62">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E62">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F62">
         <v>16</v>
@@ -2218,10 +2218,10 @@
         <v>2</v>
       </c>
       <c r="H62">
-        <v>0.76469288599999996</v>
+        <v>0.76473837300000003</v>
       </c>
       <c r="I62">
-        <v>48.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2229,7 +2229,7 @@
         <v>50</v>
       </c>
       <c r="B63">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C63">
         <v>1E-3</v>
@@ -2241,16 +2241,16 @@
         <v>32</v>
       </c>
       <c r="F63">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G63">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>0.76432170099999996</v>
+        <v>0.76916775299999995</v>
       </c>
       <c r="I63">
-        <v>43.4</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2258,13 +2258,13 @@
         <v>50</v>
       </c>
       <c r="B64">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C64">
         <v>1E-3</v>
       </c>
       <c r="D64">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E64">
         <v>64</v>
@@ -2276,10 +2276,10 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <v>0.76233334500000005</v>
+        <v>0.77042131400000002</v>
       </c>
       <c r="I64">
-        <v>36.6</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -2293,88 +2293,88 @@
         <v>1E-3</v>
       </c>
       <c r="D65">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E65">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F65">
         <v>32</v>
       </c>
       <c r="G65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>0.76213649800000005</v>
+        <v>0.77058483600000005</v>
       </c>
       <c r="I65">
-        <v>41.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>50</v>
       </c>
-      <c r="B66" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B66">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C66">
+        <v>1E-3</v>
       </c>
       <c r="D66">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E66">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F66">
         <v>32</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>0.76207212599999996</v>
+        <v>0.77080206900000003</v>
       </c>
       <c r="I66">
-        <v>49.75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>100</v>
-      </c>
-      <c r="B67">
-        <v>1E-3</v>
-      </c>
-      <c r="C67">
-        <v>1E-3</v>
+        <v>50</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D67">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E67">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F67">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G67">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>0.75909487399999998</v>
+        <v>0.77081986899999999</v>
       </c>
       <c r="I67">
-        <v>74.2</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>50</v>
       </c>
-      <c r="B68" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B68">
+        <v>1E-4</v>
       </c>
       <c r="C68" s="1">
         <v>1.0000000000000001E-5</v>
@@ -2383,62 +2383,62 @@
         <v>128</v>
       </c>
       <c r="E68">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F68">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G68">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>0.75831885499999996</v>
+        <v>0.77925012500000002</v>
       </c>
       <c r="I68">
-        <v>49.8</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>50</v>
       </c>
-      <c r="B69" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C69">
-        <v>1E-4</v>
+      <c r="B69">
+        <v>1E-4</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D69">
         <v>128</v>
       </c>
       <c r="E69">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F69">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>0.75752425400000001</v>
+        <v>0.77963496300000001</v>
       </c>
       <c r="I69">
-        <v>49.8</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>50</v>
       </c>
-      <c r="B70" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C70">
-        <v>1E-3</v>
+      <c r="B70">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D70">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E70">
         <v>128</v>
@@ -2450,39 +2450,39 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>0.756783015</v>
+        <v>0.78042883900000004</v>
       </c>
       <c r="I70">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>50</v>
       </c>
-      <c r="B71" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C71">
-        <v>1E-4</v>
+      <c r="B71">
+        <v>1E-4</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D71">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E71">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F71">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71">
-        <v>0.75413750599999996</v>
+        <v>0.78064704900000004</v>
       </c>
       <c r="I71">
-        <v>50</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -2490,28 +2490,28 @@
         <v>50</v>
       </c>
       <c r="B72">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="C72">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D72">
         <v>256</v>
       </c>
       <c r="E72">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F72">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>0.74305858300000005</v>
+        <v>0.78154765100000001</v>
       </c>
       <c r="I72">
-        <v>21</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -2519,13 +2519,13 @@
         <v>50</v>
       </c>
       <c r="B73">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C73">
-        <v>1E-3</v>
+        <v>1E-4</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D73">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E73">
         <v>32</v>
@@ -2534,42 +2534,42 @@
         <v>16</v>
       </c>
       <c r="G73">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>0.74157399599999996</v>
+        <v>0.78327848200000005</v>
       </c>
       <c r="I73">
-        <v>32.799999999999997</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B74">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="C74">
         <v>1E-3</v>
       </c>
       <c r="D74">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="E74">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F74">
         <v>32</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0.73940059899999999</v>
+        <v>0.78331703900000005</v>
       </c>
       <c r="I74">
-        <v>53.6</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -2577,144 +2577,144 @@
         <v>50</v>
       </c>
       <c r="B75">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="C75">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D75">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E75">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F75">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G75">
         <v>8</v>
       </c>
       <c r="H75">
-        <v>0.73833511699999999</v>
+        <v>0.78415629600000003</v>
       </c>
       <c r="I75">
-        <v>42.6</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>50</v>
       </c>
-      <c r="B76" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B76">
+        <v>1E-4</v>
       </c>
       <c r="C76">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D76">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E76">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F76">
         <v>16</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H76">
-        <v>0.73716017300000003</v>
+        <v>0.78492836700000002</v>
       </c>
       <c r="I76">
-        <v>49.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>100</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C77">
-        <v>0.01</v>
+        <v>50</v>
+      </c>
+      <c r="B77">
+        <v>1E-3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D77">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E77">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="F77">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H77">
-        <v>0.72396885700000002</v>
+        <v>0.78515626699999996</v>
       </c>
       <c r="I77">
-        <v>68.2</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>100</v>
-      </c>
-      <c r="B78" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="C78">
-        <v>0.01</v>
+        <v>50</v>
+      </c>
+      <c r="B78">
+        <v>1E-4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D78">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E78">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F78">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H78">
-        <v>0.70691778000000005</v>
+        <v>0.78656126900000001</v>
       </c>
       <c r="I78">
-        <v>60.6</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B79">
-        <v>0.01</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C79">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="D79">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E79">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F79">
         <v>32</v>
       </c>
       <c r="G79">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H79">
-        <v>0.697864975</v>
+        <v>0.78775728199999995</v>
       </c>
       <c r="I79">
-        <v>81.400000000000006</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -2722,10 +2722,10 @@
         <v>50</v>
       </c>
       <c r="B80">
-        <v>0.01</v>
-      </c>
-      <c r="C80">
-        <v>1E-3</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D80">
         <v>512</v>
@@ -2737,27 +2737,27 @@
         <v>16</v>
       </c>
       <c r="G80">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>0.69415973799999997</v>
+        <v>0.78817262300000002</v>
       </c>
       <c r="I80">
-        <v>35.4</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>100</v>
-      </c>
-      <c r="B81" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B81">
+        <v>1E-3</v>
       </c>
       <c r="C81">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="D81">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E81">
         <v>64</v>
@@ -2766,42 +2766,42 @@
         <v>16</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H81">
-        <v>0.68814183799999995</v>
+        <v>0.78834140600000002</v>
       </c>
       <c r="I81">
-        <v>70.599999999999994</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>50</v>
       </c>
-      <c r="B82" s="1">
-        <v>1.0000000000000001E-5</v>
+      <c r="B82">
+        <v>1E-3</v>
       </c>
       <c r="C82">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="D82">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E82">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F82">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G82">
         <v>8</v>
       </c>
       <c r="H82">
-        <v>0.64699887700000003</v>
+        <v>0.78841678000000004</v>
       </c>
       <c r="I82">
-        <v>49.4</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -2811,26 +2811,26 @@
       <c r="B83">
         <v>1E-3</v>
       </c>
-      <c r="C83">
-        <v>0.01</v>
+      <c r="C83" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D83">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E83">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F83">
         <v>16</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>0.60982492899999996</v>
+        <v>0.78891745700000004</v>
       </c>
       <c r="I83">
-        <v>31.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -2838,57 +2838,57 @@
         <v>50</v>
       </c>
       <c r="B84">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C84">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="D84">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E84">
         <v>32</v>
       </c>
       <c r="F84">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H84">
-        <v>0.58019958299999996</v>
+        <v>0.78931626799999999</v>
       </c>
       <c r="I84">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B85">
-        <v>0.01</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C85">
-        <v>0.01</v>
+        <v>1E-4</v>
       </c>
       <c r="D85">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="E85">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F85">
         <v>16</v>
       </c>
       <c r="G85">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>0.57336915499999996</v>
+        <v>0.79075714699999999</v>
       </c>
       <c r="I85">
-        <v>73.8</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -2896,28 +2896,28 @@
         <v>50</v>
       </c>
       <c r="B86">
-        <v>0.01</v>
-      </c>
-      <c r="C86">
-        <v>0.01</v>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D86">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E86">
         <v>64</v>
       </c>
       <c r="F86">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H86">
-        <v>0.57259433999999998</v>
+        <v>0.79106333600000001</v>
       </c>
       <c r="I86">
-        <v>44.2</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -2925,36 +2925,32 @@
         <v>50</v>
       </c>
       <c r="B87">
-        <v>0.01</v>
-      </c>
-      <c r="C87">
-        <v>0.01</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D87">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="E87">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F87">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87">
-        <v>0.56792324199999999</v>
+        <v>0.79212366999999995</v>
       </c>
       <c r="I87">
-        <v>40.200000000000003</v>
+        <v>16.8</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I87">
-    <sortCondition descending="1" ref="H1:H87"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>